--- a/data/CS2/case18_1/case18_1_2030.xlsx
+++ b/data/CS2/case18_1/case18_1_2030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D167DA7-DC6C-41D3-AA72-AA83C7DB66CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491009B6-18F6-42F9-8930-8C499A21B0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="5865" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18964,7 +18964,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18980,16 +18980,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f>5/7</f>
-        <v>0.7142857142857143</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
